--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-372317.8454234409</v>
+        <v>-374806.5844529579</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>189.2395865667829</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>283.4881051894444</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.08965141829</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -826,7 +826,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>17.0818093163682</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>2.70509733564736</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>303.8290895531824</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>31.84538444784481</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>90.06486366348015</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,13 +1063,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>82.26790245020096</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>177.2979137777577</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>85.26459287122364</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>30.84255098888848</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1339,25 +1339,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>114.2656173771021</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>51.50556704457033</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389242</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>247.2924896597629</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>64.40601307691827</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>40.67793690094125</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.81060261324006</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>100.4429877184272</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,13 +2056,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>219.4517041866526</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,7 +2482,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>35.88641949135634</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>121.8455631377175</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2564,13 +2564,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576149</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,10 +2953,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,13 +3004,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>205.5383435306682</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>140.9357387834181</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,10 +3247,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3554,7 +3554,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308927</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,10 +4138,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1851.570638347425</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C2" t="n">
-        <v>1851.570638347425</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D2" t="n">
-        <v>1493.304939740674</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="E2" t="n">
-        <v>1107.51668714243</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,16 +4325,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3221.474860580594</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3221.474860580594</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2967.944383854431</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2967.944383854431</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W2" t="n">
-        <v>2615.175728584316</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X2" t="n">
-        <v>2241.709970323237</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y2" t="n">
-        <v>1851.570638347425</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>815.7608990065712</v>
+        <v>2246.382089998689</v>
       </c>
       <c r="C4" t="n">
-        <v>646.8247160786643</v>
+        <v>2077.445907070782</v>
       </c>
       <c r="D4" t="n">
-        <v>496.7080766663286</v>
+        <v>1927.329267658446</v>
       </c>
       <c r="E4" t="n">
-        <v>348.7949830839354</v>
+        <v>1779.416174076053</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>1632.526226578143</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>3014.008748936225</v>
       </c>
       <c r="U4" t="n">
-        <v>1735.608663915319</v>
+        <v>3014.008748936225</v>
       </c>
       <c r="V4" t="n">
-        <v>1735.608663915319</v>
+        <v>2759.324260730338</v>
       </c>
       <c r="W4" t="n">
-        <v>1446.191493878358</v>
+        <v>2469.907090693378</v>
       </c>
       <c r="X4" t="n">
-        <v>1218.201942980341</v>
+        <v>2467.174669142219</v>
       </c>
       <c r="Y4" t="n">
-        <v>997.4093638368109</v>
+        <v>2246.382089998689</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2283.102991989293</v>
+        <v>1664.678443125552</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1295.71592618514</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>937.4502275783896</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>551.6619749801453</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>140.6760701905377</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520487</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250373</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>2283.102991989293</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y5" t="n">
-        <v>2283.102991989293</v>
+        <v>2051.278283189673</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4632,25 +4632,25 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4665,13 +4665,13 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>720.544972994939</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>629.570363233848</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1562.679315309008</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1562.679315309008</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1562.679315309008</v>
+        <v>1169.327103036487</v>
       </c>
       <c r="W7" t="n">
-        <v>1273.262145272047</v>
+        <v>1169.327103036487</v>
       </c>
       <c r="X7" t="n">
-        <v>1273.262145272047</v>
+        <v>941.3375521384692</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>720.544972994939</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1822.632236038043</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
-        <v>1453.669719097631</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1095.404020490881</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>709.6157678926365</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>298.629863103029</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>287.5978169884295</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,7 +4802,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4832,22 +4832,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3033.502222608318</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2702.439335264748</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339056</v>
+        <v>2349.670679994633</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077976</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="Y8" t="n">
-        <v>2209.232076102165</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>661.957801444442</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>493.0216185165351</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>342.9049791041994</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>194.9918855218062</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>194.9918855218062</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>194.9918855218062</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1722.044275313594</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1722.044275313594</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1722.044275313594</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V10" t="n">
-        <v>1722.044275313594</v>
+        <v>1361.01298720966</v>
       </c>
       <c r="W10" t="n">
-        <v>1722.044275313594</v>
+        <v>1071.595817172699</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>843.6062662746817</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>843.6062662746817</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,52 +5027,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637308</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890283</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.11872044489</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684177</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2366.028450684177</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>835.583792693559</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>666.6476097656521</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>516.5309703533163</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602307</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1755.431557602307</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1466.014387565346</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1238.024836667329</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1017.232257523799</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,64 +5264,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797191</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>691.195150674524</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468418</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963486</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487572</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510513</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854711</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1623.329274989137</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1333.912104952176</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.912104952176</v>
+        <v>1103.195370459393</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>882.4027913158625</v>
       </c>
     </row>
     <row r="17">
@@ -5504,58 +5504,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452603</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718124</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.528408326419</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
         <v>2129.438138565707</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7772127656159</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750803</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072725</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="20">
@@ -5744,55 +5744,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>119.2902967703784</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479719</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2410.714175003133</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2191.112710026075</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>2191.112710026075</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1936.428221820188</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6215,58 +6215,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,22 +6473,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474785</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1836.89229584329</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>991.7436897307826</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>822.8075068028758</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>672.69086739054</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>524.7777738081469</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>377.8878263102365</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1173.392154561022</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,13 +6947,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7169,28 +7169,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
@@ -7202,19 +7202,19 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7321,10 +7321,10 @@
         <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,13 +7421,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,19 +7488,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319335</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656828</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150035</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942666</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7567,28 +7567,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7795,43 +7795,43 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931275</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.308775558570233e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>165.4434550539</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>283.4881051894428</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>6.098110369885806</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>94.92839560199883</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101247</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>4.845153664065066</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>187.7316302469097</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>185.0317184880959</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>147.0213775686972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>45.99097492814199</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,19 +24178,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>6.257951202384561</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>145.1398665102882</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>103.8640922513197</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>80.64613085857593</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>24.58839950885076</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,10 +25135,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26320,40 +26320,40 @@
         <v>287364.6194524993</v>
       </c>
       <c r="E2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="F2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="G2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="H2" t="n">
         <v>282501.3098915022</v>
       </c>
       <c r="I2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="J2" t="n">
         <v>282501.3098915022</v>
       </c>
       <c r="K2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="L2" t="n">
         <v>282501.3098915022</v>
       </c>
       <c r="M2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="N2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="O2" t="n">
         <v>287364.6194524993</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.6194524993</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972772</v>
+        <v>217531.2023972777</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31327.42805567825</v>
+        <v>31327.42805567831</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813249</v>
+        <v>89744.12305813252</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26430,19 +26430,19 @@
         <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678118</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678119</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678126</v>
+        <v>10557.08828678119</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
@@ -26451,13 +26451,13 @@
         <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678119</v>
+        <v>10557.08828678117</v>
       </c>
       <c r="O4" t="n">
         <v>18547.94754987466</v>
       </c>
       <c r="P4" t="n">
-        <v>18547.94754987468</v>
+        <v>18547.94754987467</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1216463.188409623</v>
+        <v>-1216719.057649033</v>
       </c>
       <c r="C6" t="n">
-        <v>89686.55583297348</v>
+        <v>89686.5558329733</v>
       </c>
       <c r="D6" t="n">
-        <v>89686.55583297349</v>
+        <v>89686.55583297367</v>
       </c>
       <c r="E6" t="n">
-        <v>-154590.7700265418</v>
+        <v>-154625.5079519769</v>
       </c>
       <c r="F6" t="n">
-        <v>170821.6917808139</v>
+        <v>170786.953855378</v>
       </c>
       <c r="G6" t="n">
-        <v>170821.691780814</v>
+        <v>170786.9538553781</v>
       </c>
       <c r="H6" t="n">
-        <v>170821.6917808141</v>
+        <v>170786.953855378</v>
       </c>
       <c r="I6" t="n">
-        <v>170821.6917808139</v>
+        <v>170786.9538553783</v>
       </c>
       <c r="J6" t="n">
-        <v>-46709.51061646333</v>
+        <v>-46744.24854189953</v>
       </c>
       <c r="K6" t="n">
-        <v>170821.6917808139</v>
+        <v>170786.9538553782</v>
       </c>
       <c r="L6" t="n">
-        <v>170821.6917808139</v>
+        <v>170786.9538553781</v>
       </c>
       <c r="M6" t="n">
-        <v>85766.66384530197</v>
+        <v>85731.92591986633</v>
       </c>
       <c r="N6" t="n">
-        <v>170821.6917808138</v>
+        <v>170786.9538553781</v>
       </c>
       <c r="O6" t="n">
-        <v>146224.8380550775</v>
+        <v>146224.8380550774</v>
       </c>
       <c r="P6" t="n">
-        <v>165652.5560487093</v>
+        <v>165652.5560487092</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,34 +26787,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="F4" t="n">
+      <c r="K4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,13 +26975,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>123.3879405522671</v>
+        <v>123.3879405522686</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>128.339238706563</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>223.0045580533898</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>61.44380221782512</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>379.0763412056086</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,13 +27670,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>77.18195743514768</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>137.2810468259682</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>117.3098506095628</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>165.7305790876783</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>113.9124639254323</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>75.50340795433981</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-7.333857380491618e-13</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2.168102734382652e-12</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.916515846374476e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28518,7 +28518,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>3.582082778545252e-12</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-8.682195192673604e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>328.903832042181</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963271</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,19 +32546,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
@@ -32573,7 +32573,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,19 +33029,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963282</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34208,7 +34208,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422586</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>188.9220579561594</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899111</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164529</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394598</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,19 +36677,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>261.348781916454</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980852</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,16 +38099,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
